--- a/uploads/error_name.xlsx
+++ b/uploads/error_name.xlsx
@@ -17,6 +17,165 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
+    <t xml:space="preserve"> Ёритиш жиҳози</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ёритиш занжири (Осветительные цепи)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Жиддий хавфга эга маҳсулотлар</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Истеъмол товарлари</t>
+  </si>
+  <si>
+    <t>A12/01169/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ВЕНГРИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Номаълум</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> электр токи уриши</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LED light set</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Konstsmide</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Art: 5303-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 78000000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Электр таъминоти</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кабеллар яхши боғланмаган. Фойдаланувчи томонидан тегилганда электр токи уриши мумкин. Маҳсулот паст кучланиш директиваси ва EN 60598 Европа стандарти талабларига мувофиқ эмас.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Маҳсулотни бозордан қайтариш.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7318305303102 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50 та алмаштирилмайдиган оқ  LED лампалардан иборат ёритиш занжири</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8513100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Портатив LED лампалар</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тўғридан-тўғри электр тармоғи ёки батареялар билан бошқариш мумкин бўлган, USB порт билан жиҳозланган, метал кўк зарядланувчи портатив  LED лампа. Рангли ёритиш ҳусусиятига эга. Маҳсулот зарядловчи билан таъминланган.</t>
+  </si>
+  <si>
+    <t>A12/01154/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> КИТАЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Куйиш, электр ток уриши, ёнғин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAGIC COOL CAMPING  LIGHTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> XINGFENGDENGJU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> XF-5801, J00856 (ёрлиқланишида)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Электр таъминоти</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Зарядловчининг кесим майдони жуда кичик ва симлар қизиб кетиши мумкин. Ёритгични бирлаштирадиган вилкасини пластик қисми ёнувчан материалдан тайёрланган. Розетка ва вилканинг ўлчамлари мос эмас.  USB порт учун изоляция етарли эмас.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Охирги ҳаридорлардан қайтариб олиш, маҳсулотни бозордан қайтариш.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5991800008561</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тўғридан-тўғри тармоқдан, батареялар ёки қуёш модулида ишлайдиган, оқ қайта зарядланувчи портатив  LED лампалар.</t>
+  </si>
+  <si>
+    <t>A12/01165/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ELECTRIC LAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QJ-828T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тармоқ симлари ичидаги кабеллар жуда ингичка ва фойдаланилганда қизиб кетиши мумкин. Ёритгични бирлаштирадиган вилкасини пластик қисми ёнувчан материалдан тайёрланган.  Розетка ва вилканинг ўлчамлари мос эмас.Фойдаланувчи куйиши, ток уриши ва ёнғинга олиб келиши мумкин.Маҳсулот паст кучланиш директиваси ва EN 60598, EN 60335 Европа стандартлари талабларига мувофиқ эмас.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 201810029 4029, 6970774330068</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Автотранспорт воситалари</t>
+  </si>
+  <si>
+    <t>ffffff</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> енгил автомобил</t>
+  </si>
+  <si>
+    <t>A12/01157/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ГЕРМАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ёниш, жароҳатланиш</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 911 Carrera 4S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Porsche</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> e13*2007/46*0992,Тури: 992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Ишлаб чиқаришдаги хато туфайли, олд ўқ трансмиссияси ва узатиш трансмиссияси уланиш резбаси бўшаб кетиши мумкин. Бунда, олд ўқ трансмиссияси ташқарига чиқиб кетиши ва бошқа қисмларни шикастлаши мумкин. Масалан, вал ва енилғи баки, натижада ёқилғи оқиши мумкин. Шу сабабли ёнғин келиб чиқиши мумкин.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Охирги ҳаридорлардан қайтариб олиш</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Полша</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALA8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018 йил 11 декабрдан 2019 йил 8 ноябргача ишлаб чиқарилган</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> автомобил</t>
+  </si>
+  <si>
     <t>Категория</t>
   </si>
   <si>
@@ -123,165 +282,6 @@
   </si>
   <si>
     <t>Қадоқлаш тавсифи(р)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ёритиш жиҳози</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ёритиш занжири (Осветительные цепи)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Жиддий хавфга эга маҳсулотлар</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Истеъмол товарлари</t>
-  </si>
-  <si>
-    <t>A12/01169/20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ВЕНГРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Номаълум</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> электр токи уриши</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LED light set</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Konstsmide</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Art: 5303-100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 78000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Электр таъминоти</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Кабеллар яхши боғланмаган. Фойдаланувчи томонидан тегилганда электр токи уриши мумкин. Маҳсулот паст кучланиш директиваси ва EN 60598 Европа стандарти талабларига мувофиқ эмас.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Маҳсулотни бозордан қайтариш.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7318305303102 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 50 та алмаштирилмайдиган оқ  LED лампалардан иборат ёритиш занжири</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8513100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Портатив LED лампалар</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Тўғридан-тўғри электр тармоғи ёки батареялар билан бошқариш мумкин бўлган, USB порт билан жиҳозланган, метал кўк зарядланувчи портатив  LED лампа. Рангли ёритиш ҳусусиятига эга. Маҳсулот зарядловчи билан таъминланган.</t>
-  </si>
-  <si>
-    <t>A12/01154/20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> КИТАЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куйиш, электр ток уриши, ёнғин</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MAGIC COOL CAMPING  LIGHTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> XINGFENGDENGJU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> XF-5801, J00856 (ёрлиқланишида)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Электр таъминоти</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Зарядловчининг кесим майдони жуда кичик ва симлар қизиб кетиши мумкин. Ёритгични бирлаштирадиган вилкасини пластик қисми ёнувчан материалдан тайёрланган. Розетка ва вилканинг ўлчамлари мос эмас.  USB порт учун изоляция етарли эмас.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Охирги ҳаридорлардан қайтариб олиш, маҳсулотни бозордан қайтариш.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5991800008561</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Тўғридан-тўғри тармоқдан, батареялар ёки қуёш модулида ишлайдиган, оқ қайта зарядланувчи портатив  LED лампалар.</t>
-  </si>
-  <si>
-    <t>A12/01165/20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ELECTRIC LAMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> QJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> QJ-828T</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Тармоқ симлари ичидаги кабеллар жуда ингичка ва фойдаланилганда қизиб кетиши мумкин. Ёритгични бирлаштирадиган вилкасини пластик қисми ёнувчан материалдан тайёрланган.  Розетка ва вилканинг ўлчамлари мос эмас.Фойдаланувчи куйиши, ток уриши ва ёнғинга олиб келиши мумкин.Маҳсулот паст кучланиш директиваси ва EN 60598, EN 60335 Европа стандартлари талабларига мувофиқ эмас.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 201810029 4029, 6970774330068</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Автотранспорт воситалари</t>
-  </si>
-  <si>
-    <t>ffffff</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> енгил автомобил</t>
-  </si>
-  <si>
-    <t>A12/01157/20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ГЕРМАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ёниш, жароҳатланиш</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 911 Carrera 4S</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Porsche</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> e13*2007/46*0992,Тури: 992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Ишлаб чиқаришдаги хато туфайли, олд ўқ трансмиссияси ва узатиш трансмиссияси уланиш резбаси бўшаб кетиши мумкин. Бунда, олд ўқ трансмиссияси ташқарига чиқиб кетиши ва бошқа қисмларни шикастлаши мумкин. Масалан, вал ва енилғи баки, натижада ёқилғи оқиши мумкин. Шу сабабли ёнғин келиб чиқиши мумкин.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Охирги ҳаридорлардан қайтариб олиш</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Полша</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ALA8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2018 йил 11 декабрдан 2019 йил 8 ноябргача ишлаб чиқарилган</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> автомобил</t>
   </si>
 </sst>
 </file>
@@ -305,10 +305,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -319,7 +316,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,7 +613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -630,523 +627,523 @@
   <sheetData>
     <row r="1" spans="1:36">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="U1" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="V1" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="W1" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="X1" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="Y1" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="Z1" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="AA1" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="AB1" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="AC1" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="AD1" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="AE1" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="AF1" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="AG1" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AH1" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="AI1" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="AJ1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:36">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B2"/>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="N2"/>
       <c r="O2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="P2" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="Q2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="R2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="S2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="T2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="U2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="V2" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="W2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="X2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="Z2"/>
       <c r="AA2" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="AD2" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="AF2" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="AG2"/>
       <c r="AH2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="AI2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:36">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="O3" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="P3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="R3" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="S3" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="T3" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="U3" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="V3" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="W3" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="X3" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="Z3"/>
       <c r="AA3"/>
       <c r="AB3" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="AC3" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="AD3" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="AG3"/>
       <c r="AH3" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:36">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="N4" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="P4" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="Q4" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="R4" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="S4" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="T4" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="U4" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="V4" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="W4" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="X4" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="Z4"/>
       <c r="AA4" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="AB4"/>
       <c r="AC4" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="AD4" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="AG4"/>
       <c r="AH4" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="AI4" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:36">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B5"/>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="O5" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" t="s">
         <v>49</v>
       </c>
-      <c r="R5" t="s">
-        <v>83</v>
-      </c>
-      <c r="S5" t="s">
-        <v>84</v>
-      </c>
-      <c r="T5" t="s">
-        <v>85</v>
-      </c>
       <c r="U5" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="V5" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="W5" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="X5" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="Y5" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="Z5"/>
       <c r="AA5" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="AB5" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AC5" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="AD5" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="AJ5" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1155,5 +1152,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>